--- a/WorkBot/main/backend/orders/OrderFiles/Performance Food/Performance Food _ DOWNTOWN 02242024.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Performance Food/Performance Food _ DOWNTOWN 02242024.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,12 +535,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CV456</t>
+          <t>WC038</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Natalie's - Grapefruit
+          <t>Natalie's - Lemonade
 Beverage - Bottle</t>
         </is>
       </c>
@@ -551,108 +551,108 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$13.48</t>
+          <t>$10.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$13.48</t>
+          <t>$10.38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WC038</t>
+          <t>WB284</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Natalie's - Lemonade
+          <t>Natalie's - Orange Juice
 Beverage - Bottle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$10.38</t>
+          <t>$25.68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$10.38</t>
+          <t>$51.36</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WB284</t>
+          <t>WB406</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Natalie's - Orange Juice
+          <t>Natalie's - Orange Pineapple
 Beverage - Bottle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$25.68</t>
+          <t>$13.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$77.04</t>
+          <t>$13.89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WB286</t>
+          <t>WB408</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Natalie's - Orange Mango
+          <t>Natalie's - Strawberry Lemonade
 Beverage - Bottle</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$13.89</t>
+          <t>$10.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$41.67</t>
+          <t>$10.62</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WB406</t>
+          <t>AT104</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Natalie's - Orange Pineapple
+          <t>Simply - Orange
 Beverage - Bottle</t>
         </is>
       </c>
@@ -663,94 +663,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$13.89</t>
+          <t>$42.61</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$13.89</t>
+          <t>$42.61</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WB408</t>
+          <t>23978</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>Natalie's - Strawberry Lemonade
-Beverage - Bottle</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$10.62</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$10.62</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AT104</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Simply - Orange
-Beverage - Bottle</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$42.61</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$42.61</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>23978</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
         <is>
           <t>Monin - Vanilla
 Beverage - Brewed</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$33.17</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>$66.34</t>
         </is>
